--- a/data_input/source_data/Program.xlsx
+++ b/data_input/source_data/Program.xlsx
@@ -10,7 +10,7 @@
     <sheet name="2025" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2025'!$B$3:$O$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2025'!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
@@ -22,7 +22,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E309" authorId="0" shapeId="0">
+    <comment ref="E307" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -42,67 +42,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
-    <t>Тип ВС</t>
+    <t>serialno</t>
   </si>
   <si>
-    <t>Ми-8Т</t>
+    <t>partno</t>
   </si>
   <si>
-    <t>Январь</t>
+    <t>daily_flight</t>
   </si>
   <si>
-    <t>Февраль</t>
+    <t>Поле</t>
   </si>
   <si>
-    <t>Март</t>
+    <t>ops_counter_mi8</t>
   </si>
   <si>
-    <t>Апрель</t>
-  </si>
-  <si>
-    <t>Май</t>
-  </si>
-  <si>
-    <t>Июнь</t>
-  </si>
-  <si>
-    <t>Июль</t>
-  </si>
-  <si>
-    <t>Август</t>
-  </si>
-  <si>
-    <t>Сентябрь</t>
-  </si>
-  <si>
-    <t>Октябрь</t>
-  </si>
-  <si>
-    <t>Ноябрь</t>
-  </si>
-  <si>
-    <t>Декабрь</t>
-  </si>
-  <si>
-    <t>Ми-17</t>
-  </si>
-  <si>
-    <t>Количество ВС</t>
-  </si>
-  <si>
-    <t>Показатель</t>
-  </si>
-  <si>
-    <t>Среднесуточный налет план, мин</t>
+    <t>ops_counter_mi17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,14 +86,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -180,7 +136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -220,6 +176,17 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -236,16 +203,16 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -260,9 +227,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -272,8 +236,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,264 +546,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O309"/>
+  <dimension ref="A1:O307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P21" sqref="P21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="1" max="2" width="15.36328125" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="6.6328125" customWidth="1"/>
     <col min="12" max="12" width="6.6328125" style="1" customWidth="1"/>
     <col min="13" max="15" width="6.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+    <row r="1" spans="1:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5">
+        <v>8</v>
+      </c>
+      <c r="L1" s="5">
+        <v>9</v>
+      </c>
+      <c r="M1" s="5">
+        <v>10</v>
+      </c>
+      <c r="N1" s="5">
+        <v>11</v>
+      </c>
+      <c r="O1" s="5">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="2:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7">
+        <v>55</v>
+      </c>
+      <c r="E2" s="7">
+        <v>58</v>
+      </c>
+      <c r="F2" s="7">
+        <v>58</v>
+      </c>
+      <c r="G2" s="7">
+        <v>65</v>
+      </c>
+      <c r="H2" s="7">
+        <v>67</v>
+      </c>
+      <c r="I2" s="7">
+        <v>68</v>
+      </c>
+      <c r="J2" s="7">
+        <v>64</v>
+      </c>
+      <c r="K2" s="7">
+        <v>64</v>
+      </c>
+      <c r="L2" s="7">
+        <v>64</v>
+      </c>
+      <c r="M2" s="7">
+        <v>65</v>
+      </c>
+      <c r="N2" s="7">
+        <v>68</v>
+      </c>
+      <c r="O2" s="7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>64</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11">
+        <v>69</v>
+      </c>
+      <c r="E3" s="11">
+        <v>71</v>
+      </c>
+      <c r="F3" s="11">
+        <v>74</v>
+      </c>
+      <c r="G3" s="11">
+        <v>71</v>
+      </c>
+      <c r="H3" s="11">
+        <v>76</v>
+      </c>
+      <c r="I3" s="12">
+        <v>78</v>
+      </c>
+      <c r="J3" s="12">
+        <v>75</v>
+      </c>
+      <c r="K3" s="11">
+        <v>75</v>
+      </c>
+      <c r="L3" s="12">
+        <v>75</v>
+      </c>
+      <c r="M3" s="11">
+        <v>76</v>
+      </c>
+      <c r="N3" s="11">
+        <v>75</v>
+      </c>
+      <c r="O3" s="11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>32</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="D4" s="8">
+        <v>80</v>
+      </c>
+      <c r="E4" s="8">
+        <v>85</v>
+      </c>
+      <c r="F4" s="8">
+        <v>77</v>
+      </c>
+      <c r="G4" s="8">
+        <v>95</v>
+      </c>
+      <c r="H4" s="8">
+        <v>98</v>
+      </c>
+      <c r="I4" s="8">
+        <v>104</v>
+      </c>
+      <c r="J4" s="8">
+        <v>103</v>
+      </c>
+      <c r="K4" s="8">
+        <v>104</v>
+      </c>
+      <c r="L4" s="8">
+        <v>104</v>
+      </c>
+      <c r="M4" s="8">
+        <v>88</v>
+      </c>
+      <c r="N4" s="8">
+        <v>97</v>
+      </c>
+      <c r="O4" s="8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>64</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>69</v>
+      </c>
+      <c r="E5" s="8">
+        <v>83</v>
+      </c>
+      <c r="F5" s="8">
+        <v>80</v>
+      </c>
+      <c r="G5" s="8">
+        <v>103</v>
+      </c>
+      <c r="H5" s="8">
+        <v>128</v>
+      </c>
+      <c r="I5" s="8">
+        <v>151</v>
+      </c>
+      <c r="J5" s="8">
+        <v>153</v>
+      </c>
+      <c r="K5" s="8">
+        <v>150</v>
+      </c>
+      <c r="L5" s="8">
+        <v>131</v>
+      </c>
+      <c r="M5" s="8">
+        <v>107</v>
+      </c>
+      <c r="N5" s="8">
+        <v>101</v>
+      </c>
+      <c r="O5" s="8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9">
+        <v>27067</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8">
+        <v>24</v>
+      </c>
+      <c r="G6" s="8">
+        <v>34</v>
+      </c>
+      <c r="H6" s="8">
+        <v>32</v>
+      </c>
+      <c r="I6" s="8">
+        <v>41</v>
+      </c>
+      <c r="J6" s="8">
+        <v>29</v>
+      </c>
+      <c r="K6" s="8">
+        <v>27</v>
+      </c>
+      <c r="L6" s="8">
+        <v>20</v>
+      </c>
+      <c r="M6" s="8">
+        <v>19</v>
+      </c>
+      <c r="N6" s="8">
+        <v>14</v>
+      </c>
+      <c r="O6" s="8">
         <v>10</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9">
+        <v>22492</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8">
         <v>15</v>
       </c>
-      <c r="D4" s="7">
-        <v>55</v>
-      </c>
-      <c r="E4" s="7">
-        <v>58</v>
-      </c>
-      <c r="F4" s="7">
-        <v>58</v>
-      </c>
-      <c r="G4" s="7">
-        <v>65</v>
-      </c>
-      <c r="H4" s="7">
-        <v>67</v>
-      </c>
-      <c r="I4" s="7">
-        <v>68</v>
-      </c>
-      <c r="J4" s="7">
-        <v>64</v>
-      </c>
-      <c r="K4" s="7">
-        <v>64</v>
-      </c>
-      <c r="L4" s="7">
-        <v>64</v>
-      </c>
-      <c r="M4" s="7">
-        <v>65</v>
-      </c>
-      <c r="N4" s="7">
-        <v>68</v>
-      </c>
-      <c r="O4" s="7">
-        <v>68</v>
+      <c r="E7" s="8">
+        <v>24</v>
+      </c>
+      <c r="F7" s="8">
+        <v>24</v>
+      </c>
+      <c r="G7" s="8">
+        <v>34</v>
+      </c>
+      <c r="H7" s="8">
+        <v>32</v>
+      </c>
+      <c r="I7" s="8">
+        <v>41</v>
+      </c>
+      <c r="J7" s="8">
+        <v>29</v>
+      </c>
+      <c r="K7" s="8">
+        <v>27</v>
+      </c>
+      <c r="L7" s="8">
+        <v>20</v>
+      </c>
+      <c r="M7" s="8">
+        <v>19</v>
+      </c>
+      <c r="N7" s="8">
+        <v>14</v>
+      </c>
+      <c r="O7" s="8">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="12">
-        <v>69</v>
-      </c>
-      <c r="E5" s="12">
-        <v>71</v>
-      </c>
-      <c r="F5" s="12">
-        <v>74</v>
-      </c>
-      <c r="G5" s="12">
-        <v>71</v>
-      </c>
-      <c r="H5" s="12">
-        <v>76</v>
-      </c>
-      <c r="I5" s="13">
-        <v>78</v>
-      </c>
-      <c r="J5" s="13">
-        <v>75</v>
-      </c>
-      <c r="K5" s="12">
-        <v>75</v>
-      </c>
-      <c r="L5" s="13">
-        <v>75</v>
-      </c>
-      <c r="M5" s="12">
-        <v>76</v>
-      </c>
-      <c r="N5" s="12">
-        <v>75</v>
-      </c>
-      <c r="O5" s="12">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="8">
-        <v>80</v>
-      </c>
-      <c r="E6" s="8">
-        <v>85</v>
-      </c>
-      <c r="F6" s="8">
-        <v>77</v>
-      </c>
-      <c r="G6" s="8">
-        <v>95</v>
-      </c>
-      <c r="H6" s="8">
-        <v>98</v>
-      </c>
-      <c r="I6" s="8">
-        <v>104</v>
-      </c>
-      <c r="J6" s="8">
-        <v>103</v>
-      </c>
-      <c r="K6" s="8">
-        <v>104</v>
-      </c>
-      <c r="L6" s="8">
-        <v>104</v>
-      </c>
-      <c r="M6" s="8">
-        <v>88</v>
-      </c>
-      <c r="N6" s="8">
-        <v>97</v>
-      </c>
-      <c r="O6" s="8">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="8">
-        <v>69</v>
-      </c>
-      <c r="E7" s="8">
-        <v>83</v>
-      </c>
-      <c r="F7" s="8">
-        <v>80</v>
-      </c>
-      <c r="G7" s="8">
-        <v>103</v>
-      </c>
-      <c r="H7" s="8">
-        <v>128</v>
-      </c>
-      <c r="I7" s="8">
-        <v>151</v>
-      </c>
-      <c r="J7" s="8">
-        <v>153</v>
-      </c>
-      <c r="K7" s="8">
-        <v>150</v>
-      </c>
-      <c r="L7" s="8">
-        <v>131</v>
-      </c>
-      <c r="M7" s="8">
-        <v>107</v>
-      </c>
-      <c r="N7" s="8">
-        <v>101</v>
-      </c>
-      <c r="O7" s="8">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
       <c r="B8" s="9">
-        <v>27067</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>17</v>
+        <v>24190</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="D8" s="8">
         <v>15</v>
@@ -875,12 +924,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
       <c r="B9" s="9">
-        <v>22492</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
+        <v>22321</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="D9" s="8">
         <v>15</v>
@@ -919,104 +969,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="9">
-        <v>24190</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="8">
-        <v>15</v>
-      </c>
-      <c r="E10" s="8">
-        <v>24</v>
-      </c>
-      <c r="F10" s="8">
-        <v>24</v>
-      </c>
-      <c r="G10" s="8">
-        <v>34</v>
-      </c>
-      <c r="H10" s="8">
-        <v>32</v>
-      </c>
-      <c r="I10" s="8">
-        <v>41</v>
-      </c>
-      <c r="J10" s="8">
-        <v>29</v>
-      </c>
-      <c r="K10" s="8">
-        <v>27</v>
-      </c>
-      <c r="L10" s="8">
-        <v>20</v>
-      </c>
-      <c r="M10" s="8">
-        <v>19</v>
-      </c>
-      <c r="N10" s="8">
-        <v>14</v>
-      </c>
-      <c r="O10" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="9">
-        <v>22321</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="8">
-        <v>15</v>
-      </c>
-      <c r="E11" s="8">
-        <v>24</v>
-      </c>
-      <c r="F11" s="8">
-        <v>24</v>
-      </c>
-      <c r="G11" s="8">
-        <v>34</v>
-      </c>
-      <c r="H11" s="8">
-        <v>32</v>
-      </c>
-      <c r="I11" s="8">
-        <v>41</v>
-      </c>
-      <c r="J11" s="8">
-        <v>29</v>
-      </c>
-      <c r="K11" s="8">
-        <v>27</v>
-      </c>
-      <c r="L11" s="8">
-        <v>20</v>
-      </c>
-      <c r="M11" s="8">
-        <v>19</v>
-      </c>
-      <c r="N11" s="8">
-        <v>14</v>
-      </c>
-      <c r="O11" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="309" spans="5:5" x14ac:dyDescent="0.35"/>
+    <row r="307" spans="5:5" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:O2"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="15" min="2" max="117" man="1"/>
+    <brk id="15" max="115" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/data_input/source_data/Program.xlsx
+++ b/data_input/source_data/Program.xlsx
@@ -47,9 +47,6 @@
     <t>serialno</t>
   </si>
   <si>
-    <t>partno</t>
-  </si>
-  <si>
     <t>daily_flight</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>ops_counter_mi17</t>
+  </si>
+  <si>
+    <t>ac_type_mask</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -564,13 +564,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -615,7 +615,7 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7">
         <v>55</v>
@@ -660,7 +660,7 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="11">
         <v>69</v>
@@ -705,7 +705,7 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="8">
         <v>80</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="8">
         <v>69</v>
@@ -795,7 +795,7 @@
         <v>27067</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="8">
         <v>15</v>
@@ -840,7 +840,7 @@
         <v>22492</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="8">
         <v>15</v>
@@ -885,7 +885,7 @@
         <v>24190</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="8">
         <v>15</v>
@@ -930,7 +930,7 @@
         <v>22321</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="8">
         <v>15</v>

--- a/data_input/source_data/Program.xlsx
+++ b/data_input/source_data/Program.xlsx
@@ -22,7 +22,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E307" authorId="0" shapeId="0">
+    <comment ref="E304" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>serialno</t>
   </si>
@@ -546,11 +546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O307"/>
+  <dimension ref="A1:O304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -834,142 +834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9">
-        <v>22492</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
-        <v>15</v>
-      </c>
-      <c r="E7" s="8">
-        <v>24</v>
-      </c>
-      <c r="F7" s="8">
-        <v>24</v>
-      </c>
-      <c r="G7" s="8">
-        <v>34</v>
-      </c>
-      <c r="H7" s="8">
-        <v>32</v>
-      </c>
-      <c r="I7" s="8">
-        <v>41</v>
-      </c>
-      <c r="J7" s="8">
-        <v>29</v>
-      </c>
-      <c r="K7" s="8">
-        <v>27</v>
-      </c>
-      <c r="L7" s="8">
-        <v>20</v>
-      </c>
-      <c r="M7" s="8">
-        <v>19</v>
-      </c>
-      <c r="N7" s="8">
-        <v>14</v>
-      </c>
-      <c r="O7" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9">
-        <v>24190</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8">
-        <v>15</v>
-      </c>
-      <c r="E8" s="8">
-        <v>24</v>
-      </c>
-      <c r="F8" s="8">
-        <v>24</v>
-      </c>
-      <c r="G8" s="8">
-        <v>34</v>
-      </c>
-      <c r="H8" s="8">
-        <v>32</v>
-      </c>
-      <c r="I8" s="8">
-        <v>41</v>
-      </c>
-      <c r="J8" s="8">
-        <v>29</v>
-      </c>
-      <c r="K8" s="8">
-        <v>27</v>
-      </c>
-      <c r="L8" s="8">
-        <v>20</v>
-      </c>
-      <c r="M8" s="8">
-        <v>19</v>
-      </c>
-      <c r="N8" s="8">
-        <v>14</v>
-      </c>
-      <c r="O8" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9">
-        <v>22321</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8">
-        <v>15</v>
-      </c>
-      <c r="E9" s="8">
-        <v>24</v>
-      </c>
-      <c r="F9" s="8">
-        <v>24</v>
-      </c>
-      <c r="G9" s="8">
-        <v>34</v>
-      </c>
-      <c r="H9" s="8">
-        <v>32</v>
-      </c>
-      <c r="I9" s="8">
-        <v>41</v>
-      </c>
-      <c r="J9" s="8">
-        <v>29</v>
-      </c>
-      <c r="K9" s="8">
-        <v>27</v>
-      </c>
-      <c r="L9" s="8">
-        <v>20</v>
-      </c>
-      <c r="M9" s="8">
-        <v>19</v>
-      </c>
-      <c r="N9" s="8">
-        <v>14</v>
-      </c>
-      <c r="O9" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="307" spans="5:5" x14ac:dyDescent="0.35"/>
+    <row r="304" spans="5:5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/data_input/source_data/Program.xlsx
+++ b/data_input/source_data/Program.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F831FC-E788-4CB1-BA79-39F0E9DAF65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
+    <workbookView xWindow="2700" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="8" r:id="rId1"/>
@@ -17,12 +18,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E304" authorId="0" shapeId="0">
+    <comment ref="E303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>serialno</t>
   </si>
@@ -50,22 +51,19 @@
     <t>daily_flight</t>
   </si>
   <si>
-    <t>Поле</t>
+    <t>ac_type_mask</t>
   </si>
   <si>
-    <t>ops_counter_mi8</t>
+    <t>Месяц</t>
   </si>
   <si>
-    <t>ops_counter_mi17</t>
-  </si>
-  <si>
-    <t>ac_type_mask</t>
+    <t>Год</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -218,9 +216,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -233,13 +228,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -335,6 +330,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -370,6 +382,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -545,32 +574,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O304"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O40" sqref="O40"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.36328125" customWidth="1"/>
+    <col min="1" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="6.6328125" customWidth="1"/>
-    <col min="12" max="12" width="6.6328125" style="1" customWidth="1"/>
-    <col min="13" max="15" width="6.6328125" customWidth="1"/>
+    <col min="4" max="11" width="6.5703125" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="1" customWidth="1"/>
+    <col min="13" max="15" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -609,232 +638,185 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+    <row r="2" spans="1:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2025</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2025</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2025</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2025</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2025</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2025</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2025</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2025</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2025</v>
+      </c>
+      <c r="N2" s="3">
+        <v>2025</v>
+      </c>
+      <c r="O2" s="3">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>32</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7">
-        <v>55</v>
-      </c>
-      <c r="E2" s="7">
-        <v>58</v>
-      </c>
-      <c r="F2" s="7">
-        <v>58</v>
-      </c>
-      <c r="G2" s="7">
-        <v>65</v>
-      </c>
-      <c r="H2" s="7">
-        <v>67</v>
-      </c>
-      <c r="I2" s="7">
-        <v>68</v>
-      </c>
-      <c r="J2" s="7">
+      <c r="B3" s="11"/>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>80</v>
+      </c>
+      <c r="E3" s="7">
+        <v>85</v>
+      </c>
+      <c r="F3" s="7">
+        <v>77</v>
+      </c>
+      <c r="G3" s="7">
+        <v>95</v>
+      </c>
+      <c r="H3" s="7">
+        <v>98</v>
+      </c>
+      <c r="I3" s="7">
+        <v>104</v>
+      </c>
+      <c r="J3" s="7">
+        <v>103</v>
+      </c>
+      <c r="K3" s="7">
+        <v>104</v>
+      </c>
+      <c r="L3" s="7">
+        <v>104</v>
+      </c>
+      <c r="M3" s="7">
+        <v>88</v>
+      </c>
+      <c r="N3" s="7">
+        <v>97</v>
+      </c>
+      <c r="O3" s="7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>64</v>
       </c>
-      <c r="K2" s="7">
-        <v>64</v>
-      </c>
-      <c r="L2" s="7">
-        <v>64</v>
-      </c>
-      <c r="M2" s="7">
-        <v>65</v>
-      </c>
-      <c r="N2" s="7">
-        <v>68</v>
-      </c>
-      <c r="O2" s="7">
-        <v>68</v>
+      <c r="B4" s="12"/>
+      <c r="C4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>69</v>
+      </c>
+      <c r="E4" s="7">
+        <v>83</v>
+      </c>
+      <c r="F4" s="7">
+        <v>80</v>
+      </c>
+      <c r="G4" s="7">
+        <v>103</v>
+      </c>
+      <c r="H4" s="7">
+        <v>128</v>
+      </c>
+      <c r="I4" s="7">
+        <v>151</v>
+      </c>
+      <c r="J4" s="7">
+        <v>153</v>
+      </c>
+      <c r="K4" s="7">
+        <v>150</v>
+      </c>
+      <c r="L4" s="7">
+        <v>131</v>
+      </c>
+      <c r="M4" s="7">
+        <v>107</v>
+      </c>
+      <c r="N4" s="7">
+        <v>101</v>
+      </c>
+      <c r="O4" s="7">
+        <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>64</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="11">
-        <v>69</v>
-      </c>
-      <c r="E3" s="11">
-        <v>71</v>
-      </c>
-      <c r="F3" s="11">
-        <v>74</v>
-      </c>
-      <c r="G3" s="11">
-        <v>71</v>
-      </c>
-      <c r="H3" s="11">
-        <v>76</v>
-      </c>
-      <c r="I3" s="12">
-        <v>78</v>
-      </c>
-      <c r="J3" s="12">
-        <v>75</v>
-      </c>
-      <c r="K3" s="11">
-        <v>75</v>
-      </c>
-      <c r="L3" s="12">
-        <v>75</v>
-      </c>
-      <c r="M3" s="11">
-        <v>76</v>
-      </c>
-      <c r="N3" s="11">
-        <v>75</v>
-      </c>
-      <c r="O3" s="11">
-        <v>76</v>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8">
+        <v>27067</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7">
+        <v>24</v>
+      </c>
+      <c r="F5" s="7">
+        <v>24</v>
+      </c>
+      <c r="G5" s="7">
+        <v>34</v>
+      </c>
+      <c r="H5" s="7">
+        <v>32</v>
+      </c>
+      <c r="I5" s="7">
+        <v>41</v>
+      </c>
+      <c r="J5" s="7">
+        <v>29</v>
+      </c>
+      <c r="K5" s="7">
+        <v>27</v>
+      </c>
+      <c r="L5" s="7">
+        <v>20</v>
+      </c>
+      <c r="M5" s="7">
+        <v>19</v>
+      </c>
+      <c r="N5" s="7">
+        <v>14</v>
+      </c>
+      <c r="O5" s="7">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>32</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>80</v>
-      </c>
-      <c r="E4" s="8">
-        <v>85</v>
-      </c>
-      <c r="F4" s="8">
-        <v>77</v>
-      </c>
-      <c r="G4" s="8">
-        <v>95</v>
-      </c>
-      <c r="H4" s="8">
-        <v>98</v>
-      </c>
-      <c r="I4" s="8">
-        <v>104</v>
-      </c>
-      <c r="J4" s="8">
-        <v>103</v>
-      </c>
-      <c r="K4" s="8">
-        <v>104</v>
-      </c>
-      <c r="L4" s="8">
-        <v>104</v>
-      </c>
-      <c r="M4" s="8">
-        <v>88</v>
-      </c>
-      <c r="N4" s="8">
-        <v>97</v>
-      </c>
-      <c r="O4" s="8">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
-        <v>64</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
-        <v>69</v>
-      </c>
-      <c r="E5" s="8">
-        <v>83</v>
-      </c>
-      <c r="F5" s="8">
-        <v>80</v>
-      </c>
-      <c r="G5" s="8">
-        <v>103</v>
-      </c>
-      <c r="H5" s="8">
-        <v>128</v>
-      </c>
-      <c r="I5" s="8">
-        <v>151</v>
-      </c>
-      <c r="J5" s="8">
-        <v>153</v>
-      </c>
-      <c r="K5" s="8">
-        <v>150</v>
-      </c>
-      <c r="L5" s="8">
-        <v>131</v>
-      </c>
-      <c r="M5" s="8">
-        <v>107</v>
-      </c>
-      <c r="N5" s="8">
-        <v>101</v>
-      </c>
-      <c r="O5" s="8">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9">
-        <v>27067</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8">
-        <v>24</v>
-      </c>
-      <c r="F6" s="8">
-        <v>24</v>
-      </c>
-      <c r="G6" s="8">
-        <v>34</v>
-      </c>
-      <c r="H6" s="8">
-        <v>32</v>
-      </c>
-      <c r="I6" s="8">
-        <v>41</v>
-      </c>
-      <c r="J6" s="8">
-        <v>29</v>
-      </c>
-      <c r="K6" s="8">
-        <v>27</v>
-      </c>
-      <c r="L6" s="8">
-        <v>20</v>
-      </c>
-      <c r="M6" s="8">
-        <v>19</v>
-      </c>
-      <c r="N6" s="8">
-        <v>14</v>
-      </c>
-      <c r="O6" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="304" spans="5:5" x14ac:dyDescent="0.35"/>
+    <row r="303" spans="5:5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/data_input/source_data/Program.xlsx
+++ b/data_input/source_data/Program.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F831FC-E788-4CB1-BA79-39F0E9DAF65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1520" windowWidth="21600" windowHeight="11300"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="8" r:id="rId1"/>
@@ -13,17 +12,17 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2025'!$A$1:$O$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E303" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E303" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>serialno</t>
   </si>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,23 +329,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -382,23 +364,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -574,24 +539,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15.42578125" customWidth="1"/>
+    <col min="1" max="2" width="15.453125" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="6.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="1" customWidth="1"/>
-    <col min="13" max="15" width="6.5703125" customWidth="1"/>
+    <col min="4" max="11" width="6.54296875" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" style="1" customWidth="1"/>
+    <col min="13" max="15" width="6.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -638,7 +603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
@@ -681,7 +646,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>32</v>
       </c>
@@ -726,7 +691,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>64</v>
       </c>
@@ -771,7 +736,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="8">
         <v>27067</v>
@@ -816,7 +781,592 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="5:5" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8">
+        <v>25172</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>59</v>
+      </c>
+      <c r="I6" s="7">
+        <v>59</v>
+      </c>
+      <c r="J6" s="7">
+        <v>59</v>
+      </c>
+      <c r="K6" s="7">
+        <v>59</v>
+      </c>
+      <c r="L6" s="7">
+        <v>59</v>
+      </c>
+      <c r="M6" s="7">
+        <v>59</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8">
+        <v>25489</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>59</v>
+      </c>
+      <c r="I7" s="7">
+        <v>59</v>
+      </c>
+      <c r="J7" s="7">
+        <v>59</v>
+      </c>
+      <c r="K7" s="7">
+        <v>59</v>
+      </c>
+      <c r="L7" s="7">
+        <v>59</v>
+      </c>
+      <c r="M7" s="7">
+        <v>59</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8">
+        <v>25229</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>59</v>
+      </c>
+      <c r="I8" s="7">
+        <v>59</v>
+      </c>
+      <c r="J8" s="7">
+        <v>59</v>
+      </c>
+      <c r="K8" s="7">
+        <v>59</v>
+      </c>
+      <c r="L8" s="7">
+        <v>59</v>
+      </c>
+      <c r="M8" s="7">
+        <v>59</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8">
+        <v>25230</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>59</v>
+      </c>
+      <c r="I9" s="7">
+        <v>59</v>
+      </c>
+      <c r="J9" s="7">
+        <v>59</v>
+      </c>
+      <c r="K9" s="7">
+        <v>59</v>
+      </c>
+      <c r="L9" s="7">
+        <v>59</v>
+      </c>
+      <c r="M9" s="7">
+        <v>59</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8">
+        <v>25821</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>59</v>
+      </c>
+      <c r="I10" s="7">
+        <v>59</v>
+      </c>
+      <c r="J10" s="7">
+        <v>59</v>
+      </c>
+      <c r="K10" s="7">
+        <v>59</v>
+      </c>
+      <c r="L10" s="7">
+        <v>59</v>
+      </c>
+      <c r="M10" s="7">
+        <v>59</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8">
+        <v>25496</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>59</v>
+      </c>
+      <c r="I11" s="7">
+        <v>59</v>
+      </c>
+      <c r="J11" s="7">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7">
+        <v>59</v>
+      </c>
+      <c r="L11" s="7">
+        <v>59</v>
+      </c>
+      <c r="M11" s="7">
+        <v>59</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8">
+        <v>25127</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>59</v>
+      </c>
+      <c r="I12" s="7">
+        <v>59</v>
+      </c>
+      <c r="J12" s="7">
+        <v>59</v>
+      </c>
+      <c r="K12" s="7">
+        <v>59</v>
+      </c>
+      <c r="L12" s="7">
+        <v>59</v>
+      </c>
+      <c r="M12" s="7">
+        <v>59</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8">
+        <v>25421</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>59</v>
+      </c>
+      <c r="I13" s="7">
+        <v>59</v>
+      </c>
+      <c r="J13" s="7">
+        <v>59</v>
+      </c>
+      <c r="K13" s="7">
+        <v>59</v>
+      </c>
+      <c r="L13" s="7">
+        <v>59</v>
+      </c>
+      <c r="M13" s="7">
+        <v>59</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8">
+        <v>25822</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>59</v>
+      </c>
+      <c r="I14" s="7">
+        <v>59</v>
+      </c>
+      <c r="J14" s="7">
+        <v>59</v>
+      </c>
+      <c r="K14" s="7">
+        <v>59</v>
+      </c>
+      <c r="L14" s="7">
+        <v>59</v>
+      </c>
+      <c r="M14" s="7">
+        <v>59</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8">
+        <v>22978</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>59</v>
+      </c>
+      <c r="I15" s="7">
+        <v>59</v>
+      </c>
+      <c r="J15" s="7">
+        <v>59</v>
+      </c>
+      <c r="K15" s="7">
+        <v>59</v>
+      </c>
+      <c r="L15" s="7">
+        <v>59</v>
+      </c>
+      <c r="M15" s="7">
+        <v>59</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8">
+        <v>25422</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>59</v>
+      </c>
+      <c r="I16" s="7">
+        <v>59</v>
+      </c>
+      <c r="J16" s="7">
+        <v>59</v>
+      </c>
+      <c r="K16" s="7">
+        <v>59</v>
+      </c>
+      <c r="L16" s="7">
+        <v>59</v>
+      </c>
+      <c r="M16" s="7">
+        <v>59</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8">
+        <v>25752</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>59</v>
+      </c>
+      <c r="I17" s="7">
+        <v>59</v>
+      </c>
+      <c r="J17" s="7">
+        <v>59</v>
+      </c>
+      <c r="K17" s="7">
+        <v>59</v>
+      </c>
+      <c r="L17" s="7">
+        <v>59</v>
+      </c>
+      <c r="M17" s="7">
+        <v>59</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8">
+        <v>25479</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>59</v>
+      </c>
+      <c r="I18" s="7">
+        <v>59</v>
+      </c>
+      <c r="J18" s="7">
+        <v>59</v>
+      </c>
+      <c r="K18" s="7">
+        <v>59</v>
+      </c>
+      <c r="L18" s="7">
+        <v>59</v>
+      </c>
+      <c r="M18" s="7">
+        <v>59</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="5:5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/data_input/source_data/Program.xlsx
+++ b/data_input/source_data/Program.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
     <t>serialno</t>
   </si>
@@ -544,7 +544,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6:C18"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1281,43 +1281,43 @@
       <c r="B17" s="8">
         <v>25752</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>59</v>
-      </c>
-      <c r="I17" s="7">
-        <v>59</v>
-      </c>
-      <c r="J17" s="7">
-        <v>59</v>
-      </c>
-      <c r="K17" s="7">
-        <v>59</v>
-      </c>
-      <c r="L17" s="7">
-        <v>59</v>
-      </c>
-      <c r="M17" s="7">
-        <v>59</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7">
+      <c r="C17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>59</v>
+      </c>
+      <c r="I17" s="8">
+        <v>59</v>
+      </c>
+      <c r="J17" s="8">
+        <v>59</v>
+      </c>
+      <c r="K17" s="8">
+        <v>59</v>
+      </c>
+      <c r="L17" s="8">
+        <v>59</v>
+      </c>
+      <c r="M17" s="8">
+        <v>59</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1326,44 +1326,269 @@
       <c r="B18" s="8">
         <v>25479</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>59</v>
-      </c>
-      <c r="I18" s="7">
-        <v>59</v>
-      </c>
-      <c r="J18" s="7">
-        <v>59</v>
-      </c>
-      <c r="K18" s="7">
-        <v>59</v>
-      </c>
-      <c r="L18" s="7">
-        <v>59</v>
-      </c>
-      <c r="M18" s="7">
-        <v>59</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0</v>
+      <c r="C18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>59</v>
+      </c>
+      <c r="I18" s="8">
+        <v>59</v>
+      </c>
+      <c r="J18" s="8">
+        <v>59</v>
+      </c>
+      <c r="K18" s="8">
+        <v>59</v>
+      </c>
+      <c r="L18" s="8">
+        <v>59</v>
+      </c>
+      <c r="M18" s="8">
+        <v>59</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8">
+        <v>24103</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>2</v>
+      </c>
+      <c r="H19" s="8">
+        <v>2</v>
+      </c>
+      <c r="I19" s="8">
+        <v>2</v>
+      </c>
+      <c r="J19" s="8">
+        <v>2</v>
+      </c>
+      <c r="K19" s="8">
+        <v>2</v>
+      </c>
+      <c r="L19" s="8">
+        <v>2</v>
+      </c>
+      <c r="M19" s="8">
+        <v>2</v>
+      </c>
+      <c r="N19" s="8">
+        <v>2</v>
+      </c>
+      <c r="O19" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8">
+        <v>25159</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8">
+        <v>2</v>
+      </c>
+      <c r="H20" s="8">
+        <v>2</v>
+      </c>
+      <c r="I20" s="8">
+        <v>2</v>
+      </c>
+      <c r="J20" s="8">
+        <v>2</v>
+      </c>
+      <c r="K20" s="8">
+        <v>2</v>
+      </c>
+      <c r="L20" s="8">
+        <v>2</v>
+      </c>
+      <c r="M20" s="8">
+        <v>2</v>
+      </c>
+      <c r="N20" s="8">
+        <v>2</v>
+      </c>
+      <c r="O20" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8">
+        <v>24287</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>2</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2</v>
+      </c>
+      <c r="H21" s="8">
+        <v>2</v>
+      </c>
+      <c r="I21" s="8">
+        <v>2</v>
+      </c>
+      <c r="J21" s="8">
+        <v>2</v>
+      </c>
+      <c r="K21" s="8">
+        <v>2</v>
+      </c>
+      <c r="L21" s="8">
+        <v>2</v>
+      </c>
+      <c r="M21" s="8">
+        <v>2</v>
+      </c>
+      <c r="N21" s="8">
+        <v>2</v>
+      </c>
+      <c r="O21" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8">
+        <v>22890</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>2</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2</v>
+      </c>
+      <c r="G22" s="8">
+        <v>2</v>
+      </c>
+      <c r="H22" s="8">
+        <v>2</v>
+      </c>
+      <c r="I22" s="8">
+        <v>2</v>
+      </c>
+      <c r="J22" s="8">
+        <v>2</v>
+      </c>
+      <c r="K22" s="8">
+        <v>2</v>
+      </c>
+      <c r="L22" s="8">
+        <v>2</v>
+      </c>
+      <c r="M22" s="8">
+        <v>2</v>
+      </c>
+      <c r="N22" s="8">
+        <v>2</v>
+      </c>
+      <c r="O22" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8">
+        <v>24488</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2</v>
+      </c>
+      <c r="G23" s="8">
+        <v>2</v>
+      </c>
+      <c r="H23" s="8">
+        <v>2</v>
+      </c>
+      <c r="I23" s="8">
+        <v>2</v>
+      </c>
+      <c r="J23" s="8">
+        <v>2</v>
+      </c>
+      <c r="K23" s="8">
+        <v>2</v>
+      </c>
+      <c r="L23" s="8">
+        <v>2</v>
+      </c>
+      <c r="M23" s="8">
+        <v>2</v>
+      </c>
+      <c r="N23" s="8">
+        <v>2</v>
+      </c>
+      <c r="O23" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="5:5" x14ac:dyDescent="0.35"/>
